--- a/Newfolder/dsr/data/Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70AF86B4-DD1A-4C8B-8077-D00BD9F7A3AE}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144B25C5-7863-4A0C-83C7-5A94996E9F2C}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="135" windowWidth="20205" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29085" yWindow="840" windowWidth="20205" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>Email Address</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>1249 Market Street, Apt 7B</t>
+  </si>
+  <si>
+    <t>4/15/2005</t>
   </si>
 </sst>
 </file>
@@ -213,15 +216,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -530,30 +533,31 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -578,7 +582,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -616,234 +620,234 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3">
-        <v>38457</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
         <v>5712345574</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="5">
         <v>19801</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3">
-        <v>38458</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
         <v>5712345574</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="5">
         <v>19801</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
-        <v>38459</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
         <v>5712345574</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="5">
         <v>19801</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3">
-        <v>38460</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3">
         <v>5712345574</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="5">
         <v>19801</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
-        <v>38461</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
         <v>5712345574</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="5">
         <v>19801</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Newfolder/dsr/data/Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{144B25C5-7863-4A0C-83C7-5A94996E9F2C}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9152BF-BB3C-4343-A948-ED8A93145A5C}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="840" windowWidth="20205" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19920" yWindow="135" windowWidth="35415" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Email Address</t>
   </si>
@@ -143,6 +143,24 @@
   </si>
   <si>
     <t>4/15/2005</t>
+  </si>
+  <si>
+    <t>one@mailinator.com</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,13 +639,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>40</v>
@@ -671,13 +689,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -715,13 +733,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
@@ -759,13 +777,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
@@ -803,13 +821,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
@@ -848,14 +866,206 @@
         <v>28</v>
       </c>
       <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{48199EA0-566E-43A3-98A5-2506AE44C1A4}"/>
-    <hyperlink ref="A3:A6" r:id="rId2" display="isabella.davis@mailinator.com" xr:uid="{E490120C-26E6-4357-818C-5BA31B3804E7}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{FF8ED56F-D103-4630-9B98-A2766DA55C07}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{912E83BC-7C78-420A-B9BF-57E03E83BAD4}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{72966216-84DC-4511-9C02-05D1018B6BBB}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
+    <hyperlink ref="A3:A6" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Newfolder/dsr/data/Myself_form_data_updated.xlsx
+++ b/Newfolder/dsr/data/Myself_form_data_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9152BF-BB3C-4343-A948-ED8A93145A5C}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CD69CD-1E8E-4CE3-B272-BBBC49B73250}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="135" windowWidth="35415" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="47">
   <si>
     <t>Email Address</t>
   </si>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1057,426 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5712345574</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="5">
+        <v>19801</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1066,6 +1486,12 @@
     <hyperlink ref="A10" r:id="rId4" xr:uid="{940EFE9D-258E-4277-9AF5-F3079173B8BC}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{4674F4AF-8A5A-45A9-B6F4-4257DF1E8E98}"/>
     <hyperlink ref="A3:A6" r:id="rId6" display="one@mailinator.com" xr:uid="{BFB2EF0A-58BF-4AED-B856-637FFD3F5392}"/>
+    <hyperlink ref="A25" r:id="rId7" xr:uid="{66C74C89-4C20-4AC9-9EB6-3F5910183E3D}"/>
+    <hyperlink ref="A26" r:id="rId8" xr:uid="{40EABB86-E7AB-4F15-916B-3E847AB7F18A}"/>
+    <hyperlink ref="A27" r:id="rId9" xr:uid="{24D58AE2-BCD9-43AB-9878-234229DB3258}"/>
+    <hyperlink ref="A28" r:id="rId10" xr:uid="{8AD749E3-1D6B-4EBE-AC36-ADEA97767B74}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{B3329C0B-B967-4D89-859E-03F1CCC6D280}"/>
+    <hyperlink ref="A21:A24" r:id="rId12" display="one@mailinator.com" xr:uid="{5508D66D-CE07-46D3-936D-34C6DE1DA2BE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
